--- a/data/trans_orig/Q24A01-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q24A01-Clase-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>9.658823192606572</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>8.315311873097642</v>
+        <v>8.315311873097643</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>14.41985442374353</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>14.00910859183253</v>
+        <v>14.09620653002669</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>13.08869749357299</v>
+        <v>12.99597771371123</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10.70653330883736</v>
+        <v>10.73151947167802</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11.58289125763383</v>
+        <v>11.64095521244616</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>11.00310029588056</v>
+        <v>11.09799393625434</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>9.663429865086052</v>
+        <v>9.546776466653521</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>8.184106123642607</v>
+        <v>8.334919636349371</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>7.149693576954127</v>
+        <v>7.219824452425355</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>13.24399700297429</v>
+        <v>13.30446660739427</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11.92505580608709</v>
+        <v>11.9706458887767</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10.30476332516075</v>
+        <v>10.21140804047791</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>9.992248423484305</v>
+        <v>10.14850532710033</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>17.32691848068498</v>
+        <v>17.51653174125893</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.22616347351768</v>
+        <v>16.32519545285155</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.41703428302407</v>
+        <v>14.6329700187748</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.89662603963656</v>
+        <v>16.82574519242672</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>14.13380152789525</v>
+        <v>14.28864498093887</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>12.30661652240705</v>
+        <v>12.28823731432913</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>11.11218970992781</v>
+        <v>11.10495660403794</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>9.507287975774892</v>
+        <v>9.600916555683199</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>15.64695412833367</v>
+        <v>15.81599461633403</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14.23199514625134</v>
+        <v>14.10667879020994</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13.05224173103917</v>
+        <v>12.89538754473696</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>13.14241895903249</v>
+        <v>13.26473400500534</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>12.42252691266084</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13.10625098191913</v>
+        <v>13.10625098191912</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>12.2773192619597</v>
@@ -817,7 +817,7 @@
         <v>10.48745207165042</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>9.531909950230531</v>
+        <v>9.53190995023053</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>14.12466042488563</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>14.36618232269307</v>
+        <v>14.43712789112961</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>14.09541558483033</v>
+        <v>14.04508729785841</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10.89828319765403</v>
+        <v>10.93572156954887</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11.34145683838845</v>
+        <v>11.28355647867401</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>10.95161330621339</v>
+        <v>10.91903832771621</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>12.12295193489092</v>
+        <v>12.11412503416312</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>9.275619979449717</v>
+        <v>9.218391661635412</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>8.412657386355869</v>
+        <v>8.483026700903737</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>13.10628722065508</v>
+        <v>13.0772399535282</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13.53094221298725</v>
+        <v>13.60227173817763</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10.47390792023067</v>
+        <v>10.63736618045257</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>10.2694183302913</v>
+        <v>10.27019650124933</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.33224048204665</v>
+        <v>17.4602921554822</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>17.66763559795167</v>
+        <v>17.63587663483698</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14.04775537819563</v>
+        <v>14.06445257191094</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14.8687824470104</v>
+        <v>15.21758130494962</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>13.85992108072624</v>
+        <v>13.91844774988942</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>16.02298204066992</v>
+        <v>15.87224902745544</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>11.86125411429568</v>
+        <v>11.77134088650925</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>10.87840439907482</v>
+        <v>10.77766991060771</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>15.33363596121997</v>
+        <v>15.28456205317551</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>16.03132983040754</v>
+        <v>16.21845927963764</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12.45869034239781</v>
+        <v>12.72790870294093</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>12.58365811166341</v>
+        <v>12.46230124472144</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>15.32668195511654</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15.04199883446159</v>
+        <v>15.0419988344616</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>12.25914691839787</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>16.49334176043907</v>
+        <v>16.42624323223787</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>15.27191872901193</v>
+        <v>15.18705739926047</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14.12374442994927</v>
+        <v>14.24832322046455</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13.48013269141152</v>
+        <v>13.63857446502717</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>9.822258958103545</v>
+        <v>9.932430542506761</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>9.710228509658412</v>
+        <v>9.604652158644887</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>8.97222422930051</v>
+        <v>9.088398002627505</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>9.951645235663195</v>
+        <v>9.949271986609167</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>15.68872264310891</v>
+        <v>15.71519613388968</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14.24372728634478</v>
+        <v>14.17124959875641</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13.40828905047212</v>
+        <v>13.4380230326074</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>13.14431200034478</v>
+        <v>13.02580193552599</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>18.78860316135513</v>
+        <v>18.70221831151809</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.55514570683305</v>
+        <v>17.53838177053674</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.74728178825325</v>
+        <v>16.64353024317948</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16.88263254907114</v>
+        <v>16.87502587859663</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>14.87047233764639</v>
+        <v>15.29442053819747</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>12.42775782420598</v>
+        <v>12.48440276578414</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>13.27562605539974</v>
+        <v>13.02293029635675</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>14.16157583632187</v>
+        <v>14.06549058348179</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>17.83937017446128</v>
+        <v>17.77048227711689</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>16.22369881968144</v>
+        <v>16.25135463121813</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15.56944024739884</v>
+        <v>15.63881819365634</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>15.89990816490942</v>
+        <v>15.99199015876451</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>16.96091308204531</v>
+        <v>16.98852014377048</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>15.61113492096112</v>
+        <v>15.60491408282528</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13.91005386111973</v>
+        <v>14.01820703419812</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12.46225657933974</v>
+        <v>12.54510885314494</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>11.50960263937113</v>
+        <v>11.58979234167128</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>11.77230925852071</v>
+        <v>11.73903621218784</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>10.23489543188525</v>
+        <v>10.19766071155965</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>8.817732917388497</v>
+        <v>8.856545104120208</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>15.59912760691101</v>
+        <v>15.57745981220669</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14.42694554487594</v>
+        <v>14.46064377611845</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12.60295571095812</v>
+        <v>12.61292376738913</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>11.3162521514597</v>
+        <v>11.31716459206265</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>18.63203892585763</v>
+        <v>18.67950838771657</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>17.44382410089006</v>
+        <v>17.45331571647028</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15.61925450143704</v>
+        <v>15.63961256520738</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>14.52408680252263</v>
+        <v>14.51595636638874</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>13.50910116418407</v>
+        <v>13.57825698327561</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>13.62207924985218</v>
+        <v>13.66328913782536</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>11.90873016906303</v>
+        <v>11.80677046546321</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>10.33297983986819</v>
+        <v>10.31640670697012</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>16.93238781636312</v>
+        <v>16.94116910920471</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>15.83901760919875</v>
+        <v>15.84768455133015</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>13.85226301286366</v>
+        <v>13.86269359766405</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>12.67435763547395</v>
+        <v>12.70017404087772</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>15.32843703237718</v>
+        <v>15.27606155554667</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>15.64135359970939</v>
+        <v>15.64368301393342</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13.55081462963202</v>
+        <v>13.53875574214108</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13.68314537949751</v>
+        <v>13.76783686252974</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>12.39997849484967</v>
+        <v>12.27071928903928</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>12.42646800856655</v>
+        <v>12.37833072542136</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>11.03777324660724</v>
+        <v>11.18510110276004</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>9.306748881161461</v>
+        <v>9.266643576540369</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>14.25199688707426</v>
+        <v>14.24817832950187</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>14.33835643421952</v>
+        <v>14.33346626736085</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12.65759033018223</v>
+        <v>12.6995779987433</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>11.79885011074214</v>
+        <v>11.8802842521196</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.67786722860665</v>
+        <v>17.57647437843719</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>18.2128513461524</v>
+        <v>18.15960112722515</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15.72166115857116</v>
+        <v>15.69154387926065</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16.56628360871271</v>
+        <v>16.65976671568999</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>14.60129337290555</v>
+        <v>14.57188484102278</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>14.41082809119863</v>
+        <v>14.50446417405294</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>13.13377848472069</v>
+        <v>13.12369370814208</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>11.07244426533099</v>
+        <v>10.93995128084063</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>15.9159951962972</v>
+        <v>15.84674928080596</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16.08249136193944</v>
+        <v>16.05001841537496</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>14.14377795064193</v>
+        <v>14.18755686575797</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>13.51632748019387</v>
+        <v>13.56458007604191</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>10.08115035268041</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5.521560073516054</v>
+        <v>5.521560073516052</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>12.16626334977269</v>
@@ -1373,7 +1373,7 @@
         <v>10.2434456559839</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>8.594982613377297</v>
+        <v>8.594982613377296</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>11.14900989888768</v>
+        <v>11.27017933941698</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>8.309528614381419</v>
+        <v>8.321831561093628</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8.57091160053991</v>
+        <v>8.495729501646348</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3.392942421608108</v>
+        <v>3.313644015337947</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>11.00191362241117</v>
+        <v>11.00961317880545</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>11.07893148504836</v>
+        <v>11.26884010137124</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>9.196880246946311</v>
+        <v>9.223077804367712</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>8.225322069560423</v>
+        <v>8.252161811683669</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>11.47389114964156</v>
+        <v>11.46588927875808</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10.7545808322561</v>
+        <v>10.82934690060502</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9.347309394066857</v>
+        <v>9.222559437673096</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>7.392136365145764</v>
+        <v>7.359906375845933</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>15.51492662895432</v>
+        <v>15.49018428645431</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>12.52214366409554</v>
+        <v>12.46088545367722</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11.94166110564102</v>
+        <v>11.7802896423713</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10.40173231801945</v>
+        <v>10.13765432519329</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>13.67149211268566</v>
+        <v>13.58527445641726</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>13.67711979682665</v>
+        <v>13.7357400050149</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>11.4662656217236</v>
+        <v>11.52924291086059</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>10.5847896081122</v>
+        <v>10.63336392080578</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>13.72534707958203</v>
+        <v>13.72529294076634</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>12.99386778479009</v>
+        <v>13.02291057485547</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11.18590760951246</v>
+        <v>11.22198315059062</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>9.808366666293244</v>
+        <v>9.890060449455532</v>
       </c>
     </row>
     <row r="22">
@@ -1509,7 +1509,7 @@
         <v>12.73013473178202</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>11.96839569072789</v>
+        <v>11.96839569072788</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>16.33335674587685</v>
+        <v>16.29804596339815</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>15.46711025361677</v>
+        <v>15.51705821977819</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>13.63168170734689</v>
+        <v>13.61789914000897</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>13.10767770796659</v>
+        <v>13.14093434270866</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>12.05289684152823</v>
+        <v>12.12315640592332</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>12.1048708869453</v>
+        <v>12.1017875230607</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>10.49415246322947</v>
+        <v>10.47739906890589</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>9.15182960831663</v>
+        <v>9.242281403842236</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>14.86368773444791</v>
+        <v>14.83411467061302</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>14.17217928928215</v>
+        <v>14.17435478214066</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12.36637690529806</v>
+        <v>12.35920874567985</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>11.5369912299484</v>
+        <v>11.53976692321106</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>17.33641850291976</v>
+        <v>17.30846821566854</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>16.58219507131377</v>
+        <v>16.56303635583227</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14.64498604623084</v>
+        <v>14.69093884004839</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14.53633153844285</v>
+        <v>14.45955335891164</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>13.2448605060361</v>
+        <v>13.15983896745945</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>13.10857751690064</v>
+        <v>13.13080370544262</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>11.45567446107679</v>
+        <v>11.43265557861007</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>9.988983808322024</v>
+        <v>10.10452997810068</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>15.61274971487404</v>
+        <v>15.61139704744161</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>14.96272976876828</v>
+        <v>14.95354886959395</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>13.06930527810189</v>
+        <v>13.09799740163167</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>12.37848845998612</v>
+        <v>12.36682368169052</v>
       </c>
     </row>
     <row r="25">
